--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94884d7d56b8c7b8/Desktop/ITスクール/07_Design/【実習】各種設計書（テンプレ）/基本設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="342" documentId="13_ncr:1_{F3C22B6D-BDC3-4DB3-9119-A447E9B2E37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BA7D301-C865-4F25-BBE5-58145594A321}"/>
+  <xr:revisionPtr revIDLastSave="344" documentId="13_ncr:1_{F3C22B6D-BDC3-4DB3-9119-A447E9B2E37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5716B7CA-6EA3-4EF8-8487-16BD8E12D4B6}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="165" r:id="rId1"/>
@@ -1288,6 +1288,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFill="1" applyBorder="1"/>
@@ -1315,71 +1348,44 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1389,12 +1395,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1630,8 +1630,70 @@
                 <a:latin typeface="ＭＳ Ｐゴシック"/>
                 <a:ea typeface="ＭＳ Ｐゴシック"/>
               </a:rPr>
-              <a:t>2005/5/15</a:t>
+              <a:t>20</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>5/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>9</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="ＭＳ Ｐゴシック"/>
+                <a:ea typeface="ＭＳ Ｐゴシック"/>
+              </a:rPr>
+              <a:t>30</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1910,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8C5E07-C728-4F0F-892B-380398005DB8}">
   <dimension ref="A1:FT43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1"/>
@@ -2496,20 +2558,20 @@
       <c r="C8" s="49"/>
       <c r="D8" s="49"/>
       <c r="E8" s="50"/>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="67"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="78"/>
       <c r="R8" s="42"/>
       <c r="S8" s="42"/>
       <c r="T8" s="42"/>
@@ -2528,26 +2590,26 @@
     </row>
     <row r="9" spans="1:176" ht="12.95" customHeight="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="74" t="s">
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="76"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="87"/>
       <c r="R9" s="42"/>
       <c r="S9" s="42"/>
       <c r="T9" s="42"/>
@@ -2566,22 +2628,22 @@
     </row>
     <row r="10" spans="1:176" ht="12.95" customHeight="1">
       <c r="A10" s="45"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="79"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="90"/>
       <c r="R10" s="42"/>
       <c r="S10" s="42"/>
       <c r="T10" s="42"/>
@@ -2792,26 +2854,26 @@
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
-      <c r="H17" s="83" t="s">
+      <c r="H17" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="83"/>
-      <c r="T17" s="83"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="83"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="94"/>
+      <c r="V17" s="94"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="94"/>
       <c r="AA17" s="42"/>
       <c r="AB17" s="42"/>
       <c r="AC17" s="42"/>
@@ -2827,24 +2889,24 @@
       <c r="E18" s="42"/>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83"/>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="83"/>
-      <c r="U18" s="83"/>
-      <c r="V18" s="83"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="83"/>
-      <c r="Y18" s="83"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="94"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
       <c r="AA18" s="42"/>
       <c r="AB18" s="42"/>
       <c r="AC18" s="42"/>
@@ -2860,24 +2922,24 @@
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="83"/>
-      <c r="T19" s="83"/>
-      <c r="U19" s="83"/>
-      <c r="V19" s="83"/>
-      <c r="W19" s="83"/>
-      <c r="X19" s="83"/>
-      <c r="Y19" s="83"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="94"/>
       <c r="Z19" s="42"/>
       <c r="AA19" s="42"/>
       <c r="AB19" s="42"/>
@@ -3105,12 +3167,12 @@
       <c r="C26" s="53"/>
       <c r="D26" s="53"/>
       <c r="E26" s="53"/>
-      <c r="F26" s="80">
+      <c r="F26" s="91">
         <v>45930</v>
       </c>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="82"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="93"/>
       <c r="J26" s="52" t="s">
         <v>32</v>
       </c>
@@ -3745,7 +3807,7 @@
   </sheetPr>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:P4"/>
     </sheetView>
   </sheetViews>
@@ -3769,25 +3831,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="105"/>
       <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="102" t="s">
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="100"/>
-      <c r="K1" s="101"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="74"/>
       <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
@@ -3797,29 +3859,29 @@
       <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="109">
+      <c r="O1" s="106">
         <v>45930</v>
       </c>
-      <c r="P1" s="110"/>
+      <c r="P1" s="107"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
       <c r="C2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="106" t="s">
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="107"/>
-      <c r="K2" s="108"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="110"/>
       <c r="L2" s="5" t="s">
         <v>22</v>
       </c>
@@ -3835,44 +3897,44 @@
       <c r="P2" s="112"/>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="87" t="s">
+      <c r="B3" s="96"/>
+      <c r="C3" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="86"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="101"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="105"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="104"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="8"/>
@@ -3913,10 +3975,10 @@
       <c r="K6" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="L6" s="94" t="s">
+      <c r="L6" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="95"/>
+      <c r="M6" s="68"/>
       <c r="N6" s="14" t="s">
         <v>1</v>
       </c>
@@ -3961,10 +4023,10 @@
       <c r="K7" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="96" t="s">
+      <c r="L7" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="M7" s="97"/>
+      <c r="M7" s="70"/>
       <c r="N7" s="27" t="s">
         <v>79</v>
       </c>
@@ -4003,10 +4065,10 @@
       <c r="K8" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="98" t="s">
+      <c r="L8" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="M8" s="99"/>
+      <c r="M8" s="72"/>
       <c r="N8" s="27" t="s">
         <v>79</v>
       </c>
@@ -4045,10 +4107,10 @@
       <c r="K9" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="L9" s="92" t="s">
+      <c r="L9" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="M9" s="93"/>
+      <c r="M9" s="66"/>
       <c r="N9" s="27" t="s">
         <v>79</v>
       </c>
@@ -4087,10 +4149,10 @@
       <c r="K10" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="L10" s="92" t="s">
+      <c r="L10" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="M10" s="93"/>
+      <c r="M10" s="66"/>
       <c r="N10" s="27" t="s">
         <v>79</v>
       </c>
@@ -4129,10 +4191,10 @@
       <c r="K11" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="L11" s="92" t="s">
+      <c r="L11" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="M11" s="93"/>
+      <c r="M11" s="66"/>
       <c r="N11" s="27" t="s">
         <v>79</v>
       </c>
@@ -4175,10 +4237,10 @@
       <c r="K12" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="L12" s="92" t="s">
+      <c r="L12" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="M12" s="93"/>
+      <c r="M12" s="66"/>
       <c r="N12" s="27" t="s">
         <v>79</v>
       </c>
@@ -4217,10 +4279,10 @@
       <c r="K13" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="L13" s="92" t="s">
+      <c r="L13" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="M13" s="93"/>
+      <c r="M13" s="66"/>
       <c r="N13" s="27" t="s">
         <v>79</v>
       </c>
@@ -4259,10 +4321,10 @@
       <c r="K14" s="23">
         <v>0</v>
       </c>
-      <c r="L14" s="92" t="s">
+      <c r="L14" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="M14" s="93"/>
+      <c r="M14" s="66"/>
       <c r="N14" s="27" t="s">
         <v>63</v>
       </c>
@@ -4301,10 +4363,10 @@
       <c r="K15" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="L15" s="92" t="s">
+      <c r="L15" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="M15" s="93"/>
+      <c r="M15" s="66"/>
       <c r="N15" s="27" t="s">
         <v>79</v>
       </c>
@@ -4343,10 +4405,10 @@
       <c r="K16" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="L16" s="92" t="s">
+      <c r="L16" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="93"/>
+      <c r="M16" s="66"/>
       <c r="N16" s="27" t="s">
         <v>79</v>
       </c>
@@ -4385,10 +4447,10 @@
       <c r="K17" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="L17" s="92" t="s">
+      <c r="L17" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="M17" s="93"/>
+      <c r="M17" s="66"/>
       <c r="N17" s="27" t="s">
         <v>79</v>
       </c>
@@ -4427,10 +4489,10 @@
       <c r="K18" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="L18" s="92" t="s">
+      <c r="L18" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="M18" s="93"/>
+      <c r="M18" s="66"/>
       <c r="N18" s="27" t="s">
         <v>79</v>
       </c>
@@ -4469,10 +4531,10 @@
       <c r="K19" s="23">
         <v>0</v>
       </c>
-      <c r="L19" s="92" t="s">
+      <c r="L19" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="M19" s="93"/>
+      <c r="M19" s="66"/>
       <c r="N19" s="27" t="s">
         <v>96</v>
       </c>
@@ -4511,10 +4573,10 @@
       <c r="K20" s="23">
         <v>0</v>
       </c>
-      <c r="L20" s="92" t="s">
+      <c r="L20" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="M20" s="93"/>
+      <c r="M20" s="66"/>
       <c r="N20" s="27" t="s">
         <v>99</v>
       </c>
@@ -4595,10 +4657,10 @@
       <c r="K22" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="L22" s="92" t="s">
+      <c r="L22" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="M22" s="93"/>
+      <c r="M22" s="66"/>
       <c r="N22" s="27" t="s">
         <v>79</v>
       </c>
